--- a/data/trans_orig/P22$ss-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22$ss-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6763070-ADBA-4774-856B-A1DDB2CE0CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F1E1BC-5866-4E4B-883D-279E02383FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{581F475F-0309-47FD-BF4B-4F41112487F3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{301D3E01-E29F-4C01-832D-643DF154410D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="556">
-  <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="559">
+  <si>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -674,7 +674,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2012</t>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>98,45%</t>
@@ -1103,7 +1103,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2016</t>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>97,82%</t>
@@ -1415,298 +1415,307 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>Población según el Seguro Sanitario del que es beneficiario en 2023</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>Población según el Seguro Sanitario del que es beneficiario (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>1,26%</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F69BF8-7D80-47E7-8DA7-060A73479F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A4D1F3-7F95-4325-A950-B98673275992}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3151,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC31AF5-9F8D-4DC0-A59D-697CFFDC10ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C89F6-3EDB-4C76-B354-D7777DB5A3E9}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4184,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A74187-C44D-4971-9B29-D8736A338E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FF3785-78F8-4653-918B-BED29667CE46}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5217,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61889ACA-1601-4968-8E87-BD1D472875BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2E7494-35B9-4469-AE65-15D1DF36B7C7}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,10 +5335,10 @@
         <v>465</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5338,13 +5347,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>206</v>
@@ -5353,16 +5362,16 @@
         <v>209</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>469</v>
+        <v>272</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5380,22 +5389,22 @@
         <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>469</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5404,31 +5413,31 @@
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>472</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>473</v>
+        <v>190</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>86</v>
+        <v>474</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5452,7 +5461,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>65</v>
@@ -5461,7 +5470,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5470,31 +5479,31 @@
         <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>394</v>
+        <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5527,7 +5536,7 @@
         <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5538,31 +5547,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>15</v>
+        <v>482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5571,31 +5580,31 @@
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>480</v>
+        <v>341</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>481</v>
+        <v>236</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5604,31 +5613,31 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>338</v>
+        <v>162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>164</v>
+        <v>474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5637,31 +5646,31 @@
         <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5670,31 +5679,31 @@
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>494</v>
+        <v>202</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5703,31 +5712,31 @@
         <v>56</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>109</v>
+        <v>456</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>394</v>
+        <v>50</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5736,31 +5745,31 @@
         <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5807,28 +5816,28 @@
         <v>506</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>158</v>
+        <v>507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>509</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>510</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5837,31 +5846,31 @@
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5870,31 +5879,31 @@
         <v>37</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5903,31 +5912,31 @@
         <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>532</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>49</v>
+        <v>450</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5969,13 +5978,13 @@
         <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>106</v>
@@ -5984,16 +5993,16 @@
         <v>203</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>231</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6004,31 +6013,31 @@
         <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>376</v>
+        <v>537</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>536</v>
+        <v>12</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>538</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6037,31 +6046,31 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>538</v>
+        <v>334</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>312</v>
+        <v>541</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>333</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>470</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6070,31 +6079,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>348</v>
+        <v>543</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>543</v>
+        <v>392</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>342</v>
+        <v>544</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>544</v>
+        <v>195</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6103,13 +6112,13 @@
         <v>37</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>550</v>
@@ -6121,13 +6130,13 @@
         <v>552</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6136,31 +6145,31 @@
         <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>555</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6169,31 +6178,31 @@
         <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>457</v>
+        <v>204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6202,31 +6211,31 @@
         <v>62</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>474</v>
+        <v>161</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>456</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
